--- a/public/proyectoeHidra.xlsx
+++ b/public/proyectoeHidra.xlsx
@@ -12,1229 +12,6 @@
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="406">
-  <si>
-    <t>Perfil de usuarios</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Apellidos</t>
-  </si>
-  <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>País</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>Abril Aragón</t>
-  </si>
-  <si>
-    <t>Sra. Nahia Luis Hijo</t>
-  </si>
-  <si>
-    <t>raya.sergio@example.org</t>
-  </si>
-  <si>
-    <t>951 287778</t>
-  </si>
-  <si>
-    <t>Haití</t>
-  </si>
-  <si>
-    <t>Adriana Carmona</t>
-  </si>
-  <si>
-    <t>Teresa Carranza</t>
-  </si>
-  <si>
-    <t>crequena@example.com</t>
-  </si>
-  <si>
-    <t>988-08-7451</t>
-  </si>
-  <si>
-    <t>Chipre</t>
-  </si>
-  <si>
-    <t>Adriana Roca Tercero</t>
-  </si>
-  <si>
-    <t>Vega Cerda</t>
-  </si>
-  <si>
-    <t>nil.villagomez@example.net</t>
-  </si>
-  <si>
-    <t>+34 964-38-2060</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Aina Barrera</t>
-  </si>
-  <si>
-    <t>Lic. Sara Vargas</t>
-  </si>
-  <si>
-    <t>qreina@example.net</t>
-  </si>
-  <si>
-    <t>+34 947-270307</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Ainara Rangel</t>
-  </si>
-  <si>
-    <t>Arnau Hurtado</t>
-  </si>
-  <si>
-    <t>isabel.avila@example.com</t>
-  </si>
-  <si>
-    <t>+34 921-198249</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Aitor Muñoz</t>
-  </si>
-  <si>
-    <t>Marta Serrano Hijo</t>
-  </si>
-  <si>
-    <t>reina.eric@example.org</t>
-  </si>
-  <si>
-    <t>+34 971 520677</t>
-  </si>
-  <si>
-    <t>Moldavia</t>
-  </si>
-  <si>
-    <t>Alejandra Oquendo</t>
-  </si>
-  <si>
-    <t>Sr. Leo Romero</t>
-  </si>
-  <si>
-    <t>roman.amparo@example.com</t>
-  </si>
-  <si>
-    <t>+34 946267433</t>
-  </si>
-  <si>
-    <t>Panamá</t>
-  </si>
-  <si>
-    <t>Alonso Lucas Tercero</t>
-  </si>
-  <si>
-    <t>Jordi Robles</t>
-  </si>
-  <si>
-    <t>roig.rosamaria@example.org</t>
-  </si>
-  <si>
-    <t>+34 997-52-7192</t>
-  </si>
-  <si>
-    <t>Sudán del Sur</t>
-  </si>
-  <si>
-    <t>Álvaro Ojeda</t>
-  </si>
-  <si>
-    <t>Hugo Bustamante</t>
-  </si>
-  <si>
-    <t>joseantonio.flores@example.net</t>
-  </si>
-  <si>
-    <t>+34 934-658517</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Ander Benito</t>
-  </si>
-  <si>
-    <t>Gabriela Granado</t>
-  </si>
-  <si>
-    <t>naia39@example.net</t>
-  </si>
-  <si>
-    <t>+34 987 00 1498</t>
-  </si>
-  <si>
-    <t>Turquía</t>
-  </si>
-  <si>
-    <t>Andrea Alejandro</t>
-  </si>
-  <si>
-    <t>Gael Araña</t>
-  </si>
-  <si>
-    <t>emilia21@example.org</t>
-  </si>
-  <si>
-    <t>+34 963-03-7154</t>
-  </si>
-  <si>
-    <t>Belice</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>supergormiti@hotmail.com</t>
-  </si>
-  <si>
-    <t>Biel Almonte</t>
-  </si>
-  <si>
-    <t>Srta. Alexia Martí Hijo</t>
-  </si>
-  <si>
-    <t>xcisneros@example.net</t>
-  </si>
-  <si>
-    <t>+34 929-66-4756</t>
-  </si>
-  <si>
-    <t>Zimbabue</t>
-  </si>
-  <si>
-    <t>Carla Altamirano</t>
-  </si>
-  <si>
-    <t>Luis Saldivar Tercero</t>
-  </si>
-  <si>
-    <t>beatriz40@example.com</t>
-  </si>
-  <si>
-    <t>+34 900-39-4810</t>
-  </si>
-  <si>
-    <t>Malasia</t>
-  </si>
-  <si>
-    <t>Carla Santamaría</t>
-  </si>
-  <si>
-    <t>Nahia Hurtado</t>
-  </si>
-  <si>
-    <t>beltran.luisa@example.net</t>
-  </si>
-  <si>
-    <t>945 626940</t>
-  </si>
-  <si>
-    <t>Tailandia</t>
-  </si>
-  <si>
-    <t>Carmen Garibay</t>
-  </si>
-  <si>
-    <t>Unai Gallegos</t>
-  </si>
-  <si>
-    <t>mateo04@example.net</t>
-  </si>
-  <si>
-    <t>944-381718</t>
-  </si>
-  <si>
-    <t>Islandia</t>
-  </si>
-  <si>
-    <t>Cristian Tirado</t>
-  </si>
-  <si>
-    <t>Aaron Blanco Hijo</t>
-  </si>
-  <si>
-    <t>izan40@example.org</t>
-  </si>
-  <si>
-    <t>+34 921980746</t>
-  </si>
-  <si>
-    <t>Canadá</t>
-  </si>
-  <si>
-    <t>Dña Carla Merino Segundo</t>
-  </si>
-  <si>
-    <t>Yaiza Sáenz Hijo</t>
-  </si>
-  <si>
-    <t>acuna.mateo@example.org</t>
-  </si>
-  <si>
-    <t>+34 976 13 6055</t>
-  </si>
-  <si>
-    <t>Trinidad y Tobago</t>
-  </si>
-  <si>
-    <t>Dña Cristina Godoy</t>
-  </si>
-  <si>
-    <t>Mar Rodríquez Tercero</t>
-  </si>
-  <si>
-    <t>antonia54@example.net</t>
-  </si>
-  <si>
-    <t>+34 991 906954</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Dña Zoe Abeyta</t>
-  </si>
-  <si>
-    <t>Dr. Clara Casares</t>
-  </si>
-  <si>
-    <t>olga.nevarez@example.net</t>
-  </si>
-  <si>
-    <t>+34 958 923029</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Dr. Gael Garza Segundo</t>
-  </si>
-  <si>
-    <t>Sonia Carretero</t>
-  </si>
-  <si>
-    <t>centeno.paula@example.net</t>
-  </si>
-  <si>
-    <t>+34 946-69-2910</t>
-  </si>
-  <si>
-    <t>Irlanda</t>
-  </si>
-  <si>
-    <t>Dr. Miguel Ángel Peláez</t>
-  </si>
-  <si>
-    <t>Dña Gabriela Madrid Segundo</t>
-  </si>
-  <si>
-    <t>jimena.diez@example.com</t>
-  </si>
-  <si>
-    <t>Rumanía</t>
-  </si>
-  <si>
-    <t>Dr. Nuria Lovato Segundo</t>
-  </si>
-  <si>
-    <t>D. Aaron Bautista Hijo</t>
-  </si>
-  <si>
-    <t>sandra.bautista@example.org</t>
-  </si>
-  <si>
-    <t>+34 919 410793</t>
-  </si>
-  <si>
-    <t>Costa de Marfil</t>
-  </si>
-  <si>
-    <t>Elena Quintero</t>
-  </si>
-  <si>
-    <t>Erik Salazar</t>
-  </si>
-  <si>
-    <t>rosales.cesar@example.net</t>
-  </si>
-  <si>
-    <t>+34 962 36 0966</t>
-  </si>
-  <si>
-    <t>Santo Tomé y Príncipe</t>
-  </si>
-  <si>
-    <t>Elsa Arellano</t>
-  </si>
-  <si>
-    <t>Francisca Beltrán</t>
-  </si>
-  <si>
-    <t>mateo.rodrigo@example.org</t>
-  </si>
-  <si>
-    <t>+34 990918976</t>
-  </si>
-  <si>
-    <t>Elsa Urías</t>
-  </si>
-  <si>
-    <t>Alexandra Ávila</t>
-  </si>
-  <si>
-    <t>rosario.menchaca@example.org</t>
-  </si>
-  <si>
-    <t>+34 942-01-7989</t>
-  </si>
-  <si>
-    <t>Francia</t>
-  </si>
-  <si>
-    <t>Enrique Perales</t>
-  </si>
-  <si>
-    <t>Daniel Colón Hijo</t>
-  </si>
-  <si>
-    <t>montano.oriol@example.net</t>
-  </si>
-  <si>
-    <t>982-648884</t>
-  </si>
-  <si>
-    <t>Italia</t>
-  </si>
-  <si>
-    <t>Eric Ruiz</t>
-  </si>
-  <si>
-    <t>Teresa Benavides</t>
-  </si>
-  <si>
-    <t>sara86@example.org</t>
-  </si>
-  <si>
-    <t>+34 948 453500</t>
-  </si>
-  <si>
-    <t>Erik Cervantes</t>
-  </si>
-  <si>
-    <t>Lucas Chapa</t>
-  </si>
-  <si>
-    <t>miguel87@example.org</t>
-  </si>
-  <si>
-    <t>910-784446</t>
-  </si>
-  <si>
-    <t>República Sudafricana</t>
-  </si>
-  <si>
-    <t>Francisco Porras</t>
-  </si>
-  <si>
-    <t>Lic. Diana Tello</t>
-  </si>
-  <si>
-    <t>angel79@example.net</t>
-  </si>
-  <si>
-    <t>+34 907 350446</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Gabriel Abeyta</t>
-  </si>
-  <si>
-    <t>Martín Zamora</t>
-  </si>
-  <si>
-    <t>mariaangeles04@example.com</t>
-  </si>
-  <si>
-    <t>+34 905-76-5129</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Héctor Briseño</t>
-  </si>
-  <si>
-    <t>Luisa Medrano</t>
-  </si>
-  <si>
-    <t>alcantar.saul@example.com</t>
-  </si>
-  <si>
-    <t>+34 990 77 5314</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Héctor Vaca Segundo</t>
-  </si>
-  <si>
-    <t>Srta. Ainhoa Méndez</t>
-  </si>
-  <si>
-    <t>estevez.alejandra@example.net</t>
-  </si>
-  <si>
-    <t>+34 937405109</t>
-  </si>
-  <si>
-    <t>Ignacio Caballero Tercero</t>
-  </si>
-  <si>
-    <t>Pablo Gallego Segundo</t>
-  </si>
-  <si>
-    <t>kperales@example.org</t>
-  </si>
-  <si>
-    <t>+34 959732833</t>
-  </si>
-  <si>
-    <t>Nueva Zelanda</t>
-  </si>
-  <si>
-    <t>Iker Vela</t>
-  </si>
-  <si>
-    <t>Olivia Salinas</t>
-  </si>
-  <si>
-    <t>alexandra00@example.com</t>
-  </si>
-  <si>
-    <t>972-285120</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Ing. Adam Solano</t>
-  </si>
-  <si>
-    <t>Aurora Luján</t>
-  </si>
-  <si>
-    <t>sergio03@example.org</t>
-  </si>
-  <si>
-    <t>946-197821</t>
-  </si>
-  <si>
-    <t>Mauricio</t>
-  </si>
-  <si>
-    <t>Ing. Manuela Cordero</t>
-  </si>
-  <si>
-    <t>Ing. Enrique Bautista Hijo</t>
-  </si>
-  <si>
-    <t>isabel.trejo@example.net</t>
-  </si>
-  <si>
-    <t>+34 943-739647</t>
-  </si>
-  <si>
-    <t>Iván Martín</t>
-  </si>
-  <si>
-    <t>Dña Carla Izquierdo Segundo</t>
-  </si>
-  <si>
-    <t>leire86@example.org</t>
-  </si>
-  <si>
-    <t>939 50 3195</t>
-  </si>
-  <si>
-    <t>Camboya</t>
-  </si>
-  <si>
-    <t>Izan Dávila</t>
-  </si>
-  <si>
-    <t>Fátima Varela Segundo</t>
-  </si>
-  <si>
-    <t>guevara.aina@example.com</t>
-  </si>
-  <si>
-    <t>+34 993 738643</t>
-  </si>
-  <si>
-    <t>Jan Castañeda</t>
-  </si>
-  <si>
-    <t>Laura Olvera Tercero</t>
-  </si>
-  <si>
-    <t>nmunoz@example.com</t>
-  </si>
-  <si>
-    <t>+34 972 423481</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Joel Montoya</t>
-  </si>
-  <si>
-    <t>Ing. Luisa Escamilla Hijo</t>
-  </si>
-  <si>
-    <t>roybal.irene@example.net</t>
-  </si>
-  <si>
-    <t>915 14 1285</t>
-  </si>
-  <si>
-    <t>Gabón</t>
-  </si>
-  <si>
-    <t>José Antonio Jasso Hijo</t>
-  </si>
-  <si>
-    <t>José Manuel Lucero</t>
-  </si>
-  <si>
-    <t>palfonso@example.com</t>
-  </si>
-  <si>
-    <t>910-775166</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>Juana Orta</t>
-  </si>
-  <si>
-    <t>Srta. Celia Hernándes</t>
-  </si>
-  <si>
-    <t>pol.espino@example.com</t>
-  </si>
-  <si>
-    <t>+34 992 827612</t>
-  </si>
-  <si>
-    <t>San Cristóbal y Nieves</t>
-  </si>
-  <si>
-    <t>Julia Pedraza</t>
-  </si>
-  <si>
-    <t>Alba Salcido</t>
-  </si>
-  <si>
-    <t>fjaquez@example.net</t>
-  </si>
-  <si>
-    <t>918 92 3811</t>
-  </si>
-  <si>
-    <t>Eslovaquia</t>
-  </si>
-  <si>
-    <t>Laura Román</t>
-  </si>
-  <si>
-    <t>Abril Castellano</t>
-  </si>
-  <si>
-    <t>plongoria@example.org</t>
-  </si>
-  <si>
-    <t>+34 966806623</t>
-  </si>
-  <si>
-    <t>Fiyi</t>
-  </si>
-  <si>
-    <t>Lic. Ángel Saavedra Segundo</t>
-  </si>
-  <si>
-    <t>Irene Zamudio</t>
-  </si>
-  <si>
-    <t>wvanegas@example.org</t>
-  </si>
-  <si>
-    <t>+34 986-160282</t>
-  </si>
-  <si>
-    <t>Hungría</t>
-  </si>
-  <si>
-    <t>Lic. Arnau Raya</t>
-  </si>
-  <si>
-    <t>José Antonio Crespo Segundo</t>
-  </si>
-  <si>
-    <t>vergara.angel@example.net</t>
-  </si>
-  <si>
-    <t>922-401352</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Lic. Dario Samaniego Tercero</t>
-  </si>
-  <si>
-    <t>Sara Orta</t>
-  </si>
-  <si>
-    <t>rafael.paz@example.com</t>
-  </si>
-  <si>
-    <t>Maldivas</t>
-  </si>
-  <si>
-    <t>Lic. José Núñez Hijo</t>
-  </si>
-  <si>
-    <t>Biel Echevarría</t>
-  </si>
-  <si>
-    <t>groybal@example.org</t>
-  </si>
-  <si>
-    <t>+34 964-36-1478</t>
-  </si>
-  <si>
-    <t>Bosnia y Herzegovina</t>
-  </si>
-  <si>
-    <t>Lola Girón</t>
-  </si>
-  <si>
-    <t>Sr. Adam Cuesta Segundo</t>
-  </si>
-  <si>
-    <t>zavila@example.com</t>
-  </si>
-  <si>
-    <t>+34 995-330795</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Malak Gaytán Tercero</t>
-  </si>
-  <si>
-    <t>Aurora Pizarro</t>
-  </si>
-  <si>
-    <t>rayan61@example.org</t>
-  </si>
-  <si>
-    <t>+34 909675542</t>
-  </si>
-  <si>
-    <t>Libia</t>
-  </si>
-  <si>
-    <t>Manuela Roca</t>
-  </si>
-  <si>
-    <t>Ana Isabel Zapata</t>
-  </si>
-  <si>
-    <t>valentina.campos@example.com</t>
-  </si>
-  <si>
-    <t>+34 957-19-8189</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Marc Saucedo</t>
-  </si>
-  <si>
-    <t>Alicia Reyna</t>
-  </si>
-  <si>
-    <t>rosario.miramontes@example.com</t>
-  </si>
-  <si>
-    <t>+34 989-812307</t>
-  </si>
-  <si>
-    <t>Afganistán</t>
-  </si>
-  <si>
-    <t>Margarita Tovar</t>
-  </si>
-  <si>
-    <t>José Vaca</t>
-  </si>
-  <si>
-    <t>alberto38@example.net</t>
-  </si>
-  <si>
-    <t>+34 986 49 4577</t>
-  </si>
-  <si>
-    <t>Guinea-Bisáu</t>
-  </si>
-  <si>
-    <t>María Pilar Serrato</t>
-  </si>
-  <si>
-    <t>Noa Zapata</t>
-  </si>
-  <si>
-    <t>aguilar.pol@example.com</t>
-  </si>
-  <si>
-    <t>971-53-5466</t>
-  </si>
-  <si>
-    <t>Arabia Saudita</t>
-  </si>
-  <si>
-    <t>Martín Nevárez</t>
-  </si>
-  <si>
-    <t>Julia Cruz</t>
-  </si>
-  <si>
-    <t>isilva@example.com</t>
-  </si>
-  <si>
-    <t>+34 974-647352</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Mateo Figueroa</t>
-  </si>
-  <si>
-    <t>Srta. Patricia Carbonell Hijo</t>
-  </si>
-  <si>
-    <t>garica.eric@example.com</t>
-  </si>
-  <si>
-    <t>+34 939 665949</t>
-  </si>
-  <si>
-    <t>Comoras</t>
-  </si>
-  <si>
-    <t>Mateo Garica</t>
-  </si>
-  <si>
-    <t>José Saldaña</t>
-  </si>
-  <si>
-    <t>pardo.mario@example.org</t>
-  </si>
-  <si>
-    <t>Miguel Espinosa Segundo</t>
-  </si>
-  <si>
-    <t>Ignacio Tejeda</t>
-  </si>
-  <si>
-    <t>barmas@example.org</t>
-  </si>
-  <si>
-    <t>+34 982-33-5741</t>
-  </si>
-  <si>
-    <t>Miriam Cuevas</t>
-  </si>
-  <si>
-    <t>Celia Otero</t>
-  </si>
-  <si>
-    <t>echevarria.irene@example.org</t>
-  </si>
-  <si>
-    <t>+34 989 70 6565</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Nahia Arguello</t>
-  </si>
-  <si>
-    <t>Adrián Acevedo</t>
-  </si>
-  <si>
-    <t>alcaraz.gerard@example.org</t>
-  </si>
-  <si>
-    <t>+34 966306326</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Olga Altamirano</t>
-  </si>
-  <si>
-    <t>Pau Nieves Tercero</t>
-  </si>
-  <si>
-    <t>clara50@example.net</t>
-  </si>
-  <si>
-    <t>902-959587</t>
-  </si>
-  <si>
-    <t>Olga Vargas</t>
-  </si>
-  <si>
-    <t>Nayara Marroquín</t>
-  </si>
-  <si>
-    <t>pedraza.victor@example.net</t>
-  </si>
-  <si>
-    <t>+34 944-118328</t>
-  </si>
-  <si>
-    <t>Estados Unidos</t>
-  </si>
-  <si>
-    <t>Oliver Jaramillo</t>
-  </si>
-  <si>
-    <t>Lic. Marina Armenta</t>
-  </si>
-  <si>
-    <t>angela.lemus@example.net</t>
-  </si>
-  <si>
-    <t>944 92 5429</t>
-  </si>
-  <si>
-    <t>Bangladés</t>
-  </si>
-  <si>
-    <t>Olivia Más</t>
-  </si>
-  <si>
-    <t>Aurora Pantoja</t>
-  </si>
-  <si>
-    <t>solorzano.gloria@example.org</t>
-  </si>
-  <si>
-    <t>+34 969-063425</t>
-  </si>
-  <si>
-    <t>Singapur</t>
-  </si>
-  <si>
-    <t>Paula Carballo</t>
-  </si>
-  <si>
-    <t>Ana María Tirado</t>
-  </si>
-  <si>
-    <t>rosas.unai@example.com</t>
-  </si>
-  <si>
-    <t>+34 918-351041</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Pedro Calero</t>
-  </si>
-  <si>
-    <t>María Ángeles Bañuelos</t>
-  </si>
-  <si>
-    <t>hugo.valentin@example.net</t>
-  </si>
-  <si>
-    <t>+34 959-895342</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Rafael Rael</t>
-  </si>
-  <si>
-    <t>Lucía Carvajal Tercero</t>
-  </si>
-  <si>
-    <t>dgarcia@example.org</t>
-  </si>
-  <si>
-    <t>+34 900-56-8554</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>Rosario Jasso</t>
-  </si>
-  <si>
-    <t>Arnau Carretero</t>
-  </si>
-  <si>
-    <t>asier.cedillo@example.org</t>
-  </si>
-  <si>
-    <t>931 491015</t>
-  </si>
-  <si>
-    <t>Rubén Bustamante Hijo</t>
-  </si>
-  <si>
-    <t>Iván Rosas Segundo</t>
-  </si>
-  <si>
-    <t>batista.jordi@example.com</t>
-  </si>
-  <si>
-    <t>943 90 6648</t>
-  </si>
-  <si>
-    <t>Egipto</t>
-  </si>
-  <si>
-    <t>Samuel Palacios</t>
-  </si>
-  <si>
-    <t>Sr. Santiago Galindo Hijo</t>
-  </si>
-  <si>
-    <t>ymontes@example.org</t>
-  </si>
-  <si>
-    <t>+34 976 544431</t>
-  </si>
-  <si>
-    <t>Santiago Oquendo</t>
-  </si>
-  <si>
-    <t>Aurora Lorente</t>
-  </si>
-  <si>
-    <t>meza.irene@example.com</t>
-  </si>
-  <si>
-    <t>+34 949-83-5463</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Sara Navarro</t>
-  </si>
-  <si>
-    <t>Lara Olivas</t>
-  </si>
-  <si>
-    <t>sergio.villasenor@example.org</t>
-  </si>
-  <si>
-    <t>985-07-5901</t>
-  </si>
-  <si>
-    <t>Argelia</t>
-  </si>
-  <si>
-    <t>Sr. Marcos Castellanos</t>
-  </si>
-  <si>
-    <t>Ander Peralta</t>
-  </si>
-  <si>
-    <t>ngranados@example.com</t>
-  </si>
-  <si>
-    <t>+34 984-223705</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Sra. Inés Rolón</t>
-  </si>
-  <si>
-    <t>Srta. Zoe Maestas</t>
-  </si>
-  <si>
-    <t>guillem.hurtado@example.net</t>
-  </si>
-  <si>
-    <t>914-31-6688</t>
-  </si>
-  <si>
-    <t>Sra. Josefa Salgado Segundo</t>
-  </si>
-  <si>
-    <t>Biel Heredia Tercero</t>
-  </si>
-  <si>
-    <t>angeles.escobar@example.com</t>
-  </si>
-  <si>
-    <t>+34 991 092700</t>
-  </si>
-  <si>
-    <t>Srta. Carla Abeyta Tercero</t>
-  </si>
-  <si>
-    <t>Berta Valle</t>
-  </si>
-  <si>
-    <t>jaramillo.yaiza@example.org</t>
-  </si>
-  <si>
-    <t>915-042788</t>
-  </si>
-  <si>
-    <t>Jordania</t>
-  </si>
-  <si>
-    <t>Srta. Rosa Piña</t>
-  </si>
-  <si>
-    <t>Sra. Sofía Zamora</t>
-  </si>
-  <si>
-    <t>imarco@example.net</t>
-  </si>
-  <si>
-    <t>994-440413</t>
-  </si>
-  <si>
-    <t>Úrsula Verdugo</t>
-  </si>
-  <si>
-    <t>Dr. Cristina Villalba Segundo</t>
-  </si>
-  <si>
-    <t>naia93@example.com</t>
-  </si>
-  <si>
-    <t>+34 939-49-8703</t>
-  </si>
-  <si>
-    <t>Vera Arroyo Segundo</t>
-  </si>
-  <si>
-    <t>Ana María Loya Tercero</t>
-  </si>
-  <si>
-    <t>gsoriano@example.net</t>
-  </si>
-  <si>
-    <t>+34 951-35-0340</t>
-  </si>
-  <si>
-    <t>Luxemburgo</t>
-  </si>
-  <si>
-    <t>Verónica Peres Hijo</t>
-  </si>
-  <si>
-    <t>Ainara Arredondo Tercero</t>
-  </si>
-  <si>
-    <t>nicolas.manzano@example.org</t>
-  </si>
-  <si>
-    <t>+34 953 76 0076</t>
-  </si>
-  <si>
-    <t>Polonia</t>
-  </si>
-  <si>
-    <t>Víctor Negrete</t>
-  </si>
-  <si>
-    <t>Leo Gálvez</t>
-  </si>
-  <si>
-    <t>verduzco.sofia@example.org</t>
-  </si>
-  <si>
-    <t>+34 998 581311</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>xip</t>
-  </si>
-  <si>
-    <t>bahiaxips</t>
-  </si>
-  <si>
-    <t>bahiaxip@hotmail.com</t>
-  </si>
-  <si>
-    <t>España</t>
-  </si>
-  <si>
-    <t>Córdoba</t>
-  </si>
-  <si>
-    <t>Yago Otero</t>
-  </si>
-  <si>
-    <t>Blanca Soler Segundo</t>
-  </si>
-  <si>
-    <t>gonzalo94@example.com</t>
-  </si>
-  <si>
-    <t>995 42 6062</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
